--- a/FOREX/data/FOREX_5A.xlsx
+++ b/FOREX/data/FOREX_5A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -311,9 +311,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -800,9 +797,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Isle of Man</t>
   </si>
   <si>
@@ -890,9 +884,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -1652,9 +1643,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1695,9 +1683,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Uganda</t>
@@ -4492,17 +4477,17 @@
       <c r="T37" s="20">
         <v>89.785030000000006</v>
       </c>
-      <c r="U37" s="20" t="s">
-        <v>99</v>
+      <c r="U37" s="20">
+        <v>97.554000000000002</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -4562,10 +4547,10 @@
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -4625,10 +4610,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -4688,10 +4673,10 @@
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -4751,10 +4736,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -4814,10 +4799,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -4877,10 +4862,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -4940,10 +4925,10 @@
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -5003,10 +4988,10 @@
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -5066,10 +5051,10 @@
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -5129,10 +5114,10 @@
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>121</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -5192,10 +5177,10 @@
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -5255,10 +5240,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -5318,10 +5303,10 @@
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -5381,10 +5366,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -5444,10 +5429,10 @@
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -5507,10 +5492,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -5570,28 +5555,28 @@
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="19" t="s">
+      <c r="F55" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="G55" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="H55" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="I55" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="J55" s="20">
         <v>1.79</v>
@@ -5633,28 +5618,28 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="G56" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="H56" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="I56" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="J56" s="22">
         <v>1.79</v>
@@ -5696,10 +5681,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -5714,55 +5699,55 @@
         <v>0.39778829706829999</v>
       </c>
       <c r="H57" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="J57" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="K57" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="L57" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="L57" s="20" t="s">
+      <c r="M57" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="M57" s="20" t="s">
+      <c r="N57" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="N57" s="20" t="s">
+      <c r="O57" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="O57" s="20" t="s">
+      <c r="P57" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="P57" s="20" t="s">
+      <c r="Q57" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="Q57" s="20" t="s">
+      <c r="R57" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="R57" s="20" t="s">
+      <c r="S57" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="S57" s="20" t="s">
+      <c r="T57" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="T57" s="20" t="s">
+      <c r="U57" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -5822,10 +5807,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -5885,10 +5870,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -5948,10 +5933,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -6011,10 +5996,10 @@
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -6074,10 +6059,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -6137,10 +6122,10 @@
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -6200,10 +6185,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -6263,10 +6248,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -6326,10 +6311,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -6389,10 +6374,10 @@
     <row r="68" ht="14.250000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -6416,46 +6401,46 @@
         <v>11.710699999999999</v>
       </c>
       <c r="K68" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L68" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="L68" s="22" t="s">
+      <c r="M68" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="M68" s="22" t="s">
+      <c r="N68" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="N68" s="22" t="s">
+      <c r="O68" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="O68" s="22" t="s">
+      <c r="P68" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="P68" s="22" t="s">
+      <c r="Q68" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="Q68" s="22" t="s">
+      <c r="R68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="R68" s="22" t="s">
+      <c r="S68" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="S68" s="22" t="s">
+      <c r="T68" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="T68" s="22" t="s">
+      <c r="U68" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -6515,10 +6500,10 @@
     <row r="70" ht="24.000000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -6572,16 +6557,16 @@
         <v>39.180900000000001</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -6641,10 +6626,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>204</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -6686,28 +6671,28 @@
         <v>7.0528000000000004</v>
       </c>
       <c r="Q72" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="R72" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="R72" s="22" t="s">
+      <c r="S72" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="S72" s="22" t="s">
+      <c r="T72" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="T72" s="22" t="s">
+      <c r="U72" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -6767,10 +6752,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>213</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>214</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -6830,10 +6815,10 @@
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -6893,10 +6878,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -6956,10 +6941,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -7019,10 +7004,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -7076,16 +7061,16 @@
         <v>5.7602000000000002</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -7145,10 +7130,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -7190,28 +7175,28 @@
         <v>7.0528000000000004</v>
       </c>
       <c r="Q80" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="R80" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="R80" s="22" t="s">
+      <c r="S80" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="T80" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="T80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -7271,10 +7256,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -7334,10 +7319,10 @@
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7397,10 +7382,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7454,16 +7439,16 @@
         <v>9990.0017000000007</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7523,10 +7508,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7586,10 +7571,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7649,10 +7634,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7712,10 +7697,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>251</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7775,10 +7760,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7838,10 +7823,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7901,10 +7886,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -7964,10 +7949,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -8027,10 +8012,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -8083,17 +8068,17 @@
       <c r="T94" s="22">
         <v>1450</v>
       </c>
-      <c r="U94" s="22" t="s">
-        <v>262</v>
+      <c r="U94" s="22">
+        <v>1450</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -8153,10 +8138,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -8216,10 +8201,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -8273,16 +8258,16 @@
         <v>141.709</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8342,10 +8327,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8405,10 +8390,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8468,10 +8453,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8531,10 +8516,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8594,10 +8579,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8657,10 +8642,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8720,10 +8705,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8783,10 +8768,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8846,10 +8831,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8909,10 +8894,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8965,17 +8950,17 @@
       <c r="T108" s="22">
         <v>9274</v>
       </c>
-      <c r="U108" s="22" t="s">
-        <v>292</v>
+      <c r="U108" s="22">
+        <v>11041</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -9008,37 +8993,37 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="O109" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q109" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="S109" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="T109" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9098,10 +9083,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9161,10 +9146,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9218,16 +9203,16 @@
         <v>164.22</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9278,19 +9263,19 @@
         <v>1.3963000000000001</v>
       </c>
       <c r="T113" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U113" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9326,34 +9311,34 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="P114" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q114" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="R114" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="S114" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="T114" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9413,10 +9398,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9470,16 +9455,16 @@
         <v>773.112466971451</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9539,10 +9524,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9602,10 +9587,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9665,10 +9650,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9683,55 +9668,55 @@
         <v>0.29162170831996698</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="K120" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="T120" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9785,16 +9770,16 @@
         <v>36.670000000000002</v>
       </c>
       <c r="U121" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9854,10 +9839,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9917,10 +9902,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9980,10 +9965,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10043,10 +10028,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10106,10 +10091,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10169,10 +10154,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10232,10 +10217,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10295,10 +10280,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10358,10 +10343,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10415,16 +10400,16 @@
         <v>1329.0999999999999</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10484,10 +10469,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10547,10 +10532,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10610,10 +10595,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10634,49 +10619,49 @@
         <v>1.79</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="L135" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="M135" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="N135" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="R135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="S135" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="T135" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10736,10 +10721,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10799,10 +10784,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10862,10 +10847,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10925,10 +10910,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10982,16 +10967,16 @@
         <v>381</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11051,10 +11036,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11114,10 +11099,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11177,10 +11162,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11240,10 +11225,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11303,10 +11288,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11366,10 +11351,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11429,10 +11414,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11492,10 +11477,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11555,10 +11540,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11618,10 +11603,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11681,10 +11666,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11744,10 +11729,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11807,10 +11792,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11870,10 +11855,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11933,10 +11918,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11996,10 +11981,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12059,10 +12044,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12116,16 +12101,16 @@
         <v>19.9495</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12185,10 +12170,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12248,10 +12233,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12311,10 +12296,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12374,10 +12359,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12431,16 +12416,16 @@
         <v>10133.355</v>
       </c>
       <c r="U163" s="20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12500,28 +12485,28 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F165" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="G165" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="H165" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="I165" s="20" t="s">
         <v>458</v>
-      </c>
-      <c r="G165" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="H165" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="I165" s="20" t="s">
-        <v>461</v>
       </c>
       <c r="J165" s="20">
         <v>1.79</v>
@@ -12563,10 +12548,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12584,52 +12569,52 @@
         <v>21.385000000000002</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="K166" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="L166" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="M166" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="R166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>473</v>
-      </c>
-      <c r="S166" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="T166" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12641,58 +12626,58 @@
         <v>181.9314</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="J167" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="K167" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="R167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="S167" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="T167" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12752,25 +12737,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="F169" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="G169" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
+      <c r="H169" s="20" t="s">
         <v>498</v>
-      </c>
-      <c r="F169" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="G169" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>501</v>
       </c>
       <c r="I169" s="20">
         <v>31750</v>
@@ -12800,25 +12785,25 @@
         <v>23605</v>
       </c>
       <c r="R169" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="S169" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="T169" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="U169" s="20" t="s">
         <v>502</v>
-      </c>
-      <c r="S169" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="T169" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="U169" s="20" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12878,31 +12863,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="F171" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="G171" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="H171" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="I171" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>512</v>
-      </c>
-      <c r="H171" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="I171" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>515</v>
       </c>
       <c r="K171" s="20">
         <v>2.9500000000000002</v>
@@ -12941,10 +12926,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12998,16 +12983,16 @@
         <v>186.40819999999999</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13067,10 +13052,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13130,10 +13115,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13193,10 +13178,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13250,16 +13235,16 @@
         <v>55</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13319,10 +13304,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13382,10 +13367,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13445,10 +13430,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13493,25 +13478,25 @@
         <v>436.5</v>
       </c>
       <c r="R180" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="S180" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="T180" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="U180" s="22" t="s">
         <v>536</v>
-      </c>
-      <c r="S180" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="T180" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="U180" s="22" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13571,10 +13556,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13634,10 +13619,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13690,17 +13675,17 @@
       <c r="T183" s="20">
         <v>2298.4648514851501</v>
       </c>
-      <c r="U183" s="20" t="s">
-        <v>546</v>
+      <c r="U183" s="20">
+        <v>2297.609109</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13760,10 +13745,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13823,10 +13808,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13886,10 +13871,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13943,16 +13928,16 @@
         <v>2.2732439190725202</v>
       </c>
       <c r="U187" s="20">
-        <v>2.2851919561243101</v>
+        <v>2.27427791676143</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -14012,10 +13997,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14075,10 +14060,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14131,17 +14116,17 @@
       <c r="T190" s="22">
         <v>7.3471000000000002</v>
       </c>
-      <c r="U190" s="22" t="s">
-        <v>561</v>
+      <c r="U190" s="22">
+        <v>12.9892</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14201,10 +14186,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14264,10 +14249,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14327,10 +14312,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14390,10 +14375,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14453,10 +14438,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14516,37 +14501,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="F197" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="G197" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="H197" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="I197" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="J197" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>578</v>
-      </c>
-      <c r="H197" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="I197" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="J197" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="K197" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>583</v>
       </c>
       <c r="M197" s="20">
         <v>2202.1999999999998</v>
@@ -14579,10 +14564,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14636,16 +14621,16 @@
         <v>107.7</v>
       </c>
       <c r="U198" s="22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14690,25 +14675,25 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="R199" s="20" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="S199" s="20" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="T199" s="20" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="U199" s="20" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14768,10 +14753,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14831,10 +14816,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14894,10 +14879,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14915,34 +14900,34 @@
         <v>4900000.0000000102</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="K203" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="L203" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="M203" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="N203" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>605</v>
-      </c>
-      <c r="N203" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="O203" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="P203" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q203" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>610</v>
       </c>
       <c r="S203" s="20">
         <v>16.773399999999999</v>
@@ -14957,10 +14942,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15020,10 +15005,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15083,10 +15068,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5A.xlsx
+++ b/FOREX/data/FOREX_5A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -680,9 +680,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -1359,9 +1356,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Singapore</t>
@@ -2355,7 +2349,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -7060,17 +7054,17 @@
       <c r="T78" s="22">
         <v>5.7602000000000002</v>
       </c>
-      <c r="U78" s="22" t="s">
-        <v>222</v>
+      <c r="U78" s="22">
+        <v>6.0061</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -7130,10 +7124,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -7175,28 +7169,28 @@
         <v>7.0528000000000004</v>
       </c>
       <c r="Q80" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="R80" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="R80" s="22" t="s">
+      <c r="S80" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="T80" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="T80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>230</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -7256,10 +7250,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -7319,10 +7313,10 @@
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>237</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7382,10 +7376,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>239</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7439,16 +7433,16 @@
         <v>9990.0017000000007</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>242</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7508,10 +7502,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>243</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>244</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7571,10 +7565,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7634,10 +7628,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7697,10 +7691,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>249</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>250</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7760,10 +7754,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>252</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7823,10 +7817,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>254</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7886,10 +7880,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>256</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -7949,10 +7943,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -8012,10 +8006,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -8075,10 +8069,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -8138,10 +8132,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -8201,10 +8195,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -8258,16 +8252,16 @@
         <v>141.709</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8327,10 +8321,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8390,10 +8384,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8453,10 +8447,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8516,10 +8510,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8579,10 +8573,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8642,10 +8636,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8705,10 +8699,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8768,10 +8762,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8831,10 +8825,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8894,10 +8888,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8957,10 +8951,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -8993,37 +8987,37 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="O109" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="P109" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="Q109" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="S109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="T109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9083,10 +9077,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9146,10 +9140,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9203,16 +9197,16 @@
         <v>164.22</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9263,19 +9257,19 @@
         <v>1.3963000000000001</v>
       </c>
       <c r="T113" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="U113" s="20" t="s">
         <v>309</v>
-      </c>
-      <c r="U113" s="20" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9311,34 +9305,34 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="P114" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="Q114" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="R114" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="S114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="T114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>318</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>320</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>321</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9398,10 +9392,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>323</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9455,16 +9449,16 @@
         <v>773.112466971451</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>325</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>326</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9524,10 +9518,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C118" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>328</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9587,10 +9581,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>330</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9650,10 +9644,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>331</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>332</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9668,55 +9662,55 @@
         <v>0.29162170831996698</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="J120" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="K120" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="S120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="T120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>345</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>347</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>348</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9770,16 +9764,16 @@
         <v>36.670000000000002</v>
       </c>
       <c r="U121" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>350</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>351</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9839,10 +9833,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>353</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9902,10 +9896,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C124" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9965,10 +9959,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" s="17" t="s">
         <v>356</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>357</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10028,10 +10022,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>358</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>359</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10091,10 +10085,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>361</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10154,10 +10148,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10217,10 +10211,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>364</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>365</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10280,10 +10274,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="17" t="s">
         <v>366</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>367</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10343,10 +10337,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>369</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10400,16 +10394,16 @@
         <v>1329.0999999999999</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>372</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10469,10 +10463,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>373</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>374</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10532,10 +10526,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10595,10 +10589,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>377</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>378</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10619,49 +10613,49 @@
         <v>1.79</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K135" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="L135" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="M135" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="N135" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="R135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="S135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="T135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>391</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>392</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10721,10 +10715,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>393</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>394</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10784,10 +10778,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>395</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>396</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10847,10 +10841,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>397</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>398</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10910,10 +10904,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>399</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>400</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10967,16 +10961,16 @@
         <v>381</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>402</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>403</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11036,10 +11030,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>404</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>405</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11099,10 +11093,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>407</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11162,10 +11156,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>408</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>409</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11225,10 +11219,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>410</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>411</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11288,10 +11282,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11351,10 +11345,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11414,10 +11408,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>417</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11477,10 +11471,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11540,10 +11534,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11603,10 +11597,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11666,10 +11660,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>424</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>425</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11729,10 +11723,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C153" s="17" t="s">
         <v>426</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>427</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11792,10 +11786,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C154" s="17" t="s">
         <v>428</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>429</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11855,10 +11849,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C155" s="17" t="s">
         <v>430</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>431</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11918,10 +11912,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C156" s="17" t="s">
         <v>432</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>433</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11981,10 +11975,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C157" s="17" t="s">
         <v>434</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>435</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12044,10 +12038,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C158" s="17" t="s">
         <v>436</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>437</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12101,16 +12095,16 @@
         <v>19.9495</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C159" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>440</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12170,10 +12164,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C160" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12233,10 +12227,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C161" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12296,10 +12290,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C162" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>446</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12359,10 +12353,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12415,17 +12409,17 @@
       <c r="T163" s="20">
         <v>10133.355</v>
       </c>
-      <c r="U163" s="20" t="s">
-        <v>449</v>
+      <c r="U163" s="20">
+        <v>11224.605</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12485,28 +12479,28 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="F165" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="G165" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="H165" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="I165" s="20" t="s">
         <v>456</v>
-      </c>
-      <c r="H165" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="I165" s="20" t="s">
-        <v>458</v>
       </c>
       <c r="J165" s="20">
         <v>1.79</v>
@@ -12548,10 +12542,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12569,52 +12563,52 @@
         <v>21.385000000000002</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="K166" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="L166" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="M166" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="R166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="S166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>471</v>
-      </c>
-      <c r="T166" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12626,58 +12620,58 @@
         <v>181.9314</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="I167" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="J167" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="K167" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="R167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="S167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>488</v>
-      </c>
-      <c r="T167" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12737,25 +12731,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="F169" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
+      <c r="G169" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="H169" s="20" t="s">
         <v>496</v>
-      </c>
-      <c r="G169" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>498</v>
       </c>
       <c r="I169" s="20">
         <v>31750</v>
@@ -12785,25 +12779,25 @@
         <v>23605</v>
       </c>
       <c r="R169" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="S169" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="T169" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="S169" s="20" t="s">
+      <c r="U169" s="20" t="s">
         <v>500</v>
-      </c>
-      <c r="T169" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="U169" s="20" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12863,31 +12857,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="F171" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="G171" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="H171" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="I171" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="H171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>510</v>
-      </c>
-      <c r="I171" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>512</v>
       </c>
       <c r="K171" s="20">
         <v>2.9500000000000002</v>
@@ -12926,10 +12920,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12983,16 +12977,16 @@
         <v>186.40819999999999</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13052,10 +13046,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13115,10 +13109,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13178,10 +13172,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13235,16 +13229,16 @@
         <v>55</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13304,10 +13298,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13367,10 +13361,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13430,10 +13424,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13478,25 +13472,25 @@
         <v>436.5</v>
       </c>
       <c r="R180" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="S180" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="T180" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="S180" s="22" t="s">
+      <c r="U180" s="22" t="s">
         <v>534</v>
-      </c>
-      <c r="T180" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="U180" s="22" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13556,10 +13550,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13619,10 +13613,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13682,10 +13676,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13745,10 +13739,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13808,10 +13802,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13871,10 +13865,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13934,10 +13928,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -13997,10 +13991,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14060,10 +14054,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14123,10 +14117,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14186,10 +14180,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14249,10 +14243,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14312,10 +14306,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14375,10 +14369,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14438,10 +14432,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14501,37 +14495,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="F197" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="G197" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="H197" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="I197" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="J197" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="J197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>576</v>
-      </c>
-      <c r="K197" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>578</v>
       </c>
       <c r="M197" s="20">
         <v>2202.1999999999998</v>
@@ -14564,10 +14558,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14621,16 +14615,16 @@
         <v>107.7</v>
       </c>
       <c r="U198" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14675,25 +14669,25 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="R199" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="S199" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="T199" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="S199" s="20" t="s">
+      <c r="U199" s="20" t="s">
         <v>585</v>
-      </c>
-      <c r="T199" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="U199" s="20" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14753,10 +14747,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14816,10 +14810,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14879,10 +14873,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14900,34 +14894,34 @@
         <v>4900000.0000000102</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="K203" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="L203" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="M203" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="O203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="P203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>603</v>
-      </c>
-      <c r="Q203" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>605</v>
       </c>
       <c r="S203" s="20">
         <v>16.773399999999999</v>
@@ -14942,10 +14936,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15005,10 +14999,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15068,10 +15062,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5A.xlsx
+++ b/FOREX/data/FOREX_5A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -1749,9 +1749,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Venezuela, Rep. Bolivariana de</t>
@@ -8912,34 +8909,34 @@
         <v>8481</v>
       </c>
       <c r="J108" s="22">
-        <v>8058.7799999999997</v>
+        <v>8058</v>
       </c>
       <c r="K108" s="22">
-        <v>8023.2399999999998</v>
+        <v>8017.9047619047597</v>
       </c>
       <c r="L108" s="22">
-        <v>7987.4499999999998</v>
+        <v>7985</v>
       </c>
       <c r="M108" s="22">
-        <v>8027.7600000000002</v>
+        <v>8025</v>
       </c>
       <c r="N108" s="22">
-        <v>8097.7700000000004</v>
+        <v>8086</v>
       </c>
       <c r="O108" s="22">
-        <v>8172.5954036882504</v>
+        <v>8148</v>
       </c>
       <c r="P108" s="22">
-        <v>8337.8099999999995</v>
+        <v>8184</v>
       </c>
       <c r="Q108" s="22">
-        <v>8307.2576332108692</v>
+        <v>8293</v>
       </c>
       <c r="R108" s="22">
-        <v>8596.1763025086093</v>
+        <v>8530</v>
       </c>
       <c r="S108" s="22">
-        <v>9019.1014525165992</v>
+        <v>8861</v>
       </c>
       <c r="T108" s="22">
         <v>9274</v>
@@ -14614,17 +14611,17 @@
       <c r="T198" s="22">
         <v>107.7</v>
       </c>
-      <c r="U198" s="22" t="s">
-        <v>579</v>
+      <c r="U198" s="22">
+        <v>112.2</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C199" s="17" t="s">
         <v>580</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>581</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14669,25 +14666,25 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="R199" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="S199" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="S199" s="20" t="s">
+      <c r="T199" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="T199" s="20" t="s">
+      <c r="U199" s="20" t="s">
         <v>584</v>
-      </c>
-      <c r="U199" s="20" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C200" s="17" t="s">
         <v>586</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>587</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14747,10 +14744,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C201" s="17" t="s">
         <v>588</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>589</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14810,10 +14807,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>590</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>591</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14873,10 +14870,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>592</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14894,34 +14891,34 @@
         <v>4900000.0000000102</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="J203" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="K203" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="L203" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="M203" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="O203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="P203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="Q203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>602</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>603</v>
       </c>
       <c r="S203" s="20">
         <v>16.773399999999999</v>
@@ -14936,10 +14933,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>605</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -14999,10 +14996,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>606</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>607</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15062,10 +15059,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C206" s="24" t="s">
         <v>608</v>
-      </c>
-      <c r="C206" s="24" t="s">
-        <v>609</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5A.xlsx
+++ b/FOREX/data/FOREX_5A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -810,9 +810,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Japan</t>
@@ -8248,17 +8245,17 @@
       <c r="T97" s="20">
         <v>141.709</v>
       </c>
-      <c r="U97" s="20" t="s">
-        <v>266</v>
+      <c r="U97" s="20">
+        <v>153.91995</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8318,10 +8315,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8381,10 +8378,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8444,10 +8441,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8507,10 +8504,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8570,10 +8567,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8633,10 +8630,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8696,10 +8693,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8759,10 +8756,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8822,10 +8819,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8885,10 +8882,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8948,10 +8945,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -8984,37 +8981,37 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="O109" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="P109" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="Q109" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="S109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="T109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>297</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>299</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>300</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9074,10 +9071,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9137,10 +9134,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9194,16 +9191,16 @@
         <v>164.22</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9254,19 +9251,19 @@
         <v>1.3963000000000001</v>
       </c>
       <c r="T113" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="U113" s="20" t="s">
         <v>308</v>
-      </c>
-      <c r="U113" s="20" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9302,34 +9299,34 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="P114" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="Q114" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="R114" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="S114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="T114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C115" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>320</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9389,10 +9386,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9446,16 +9443,16 @@
         <v>773.112466971451</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>325</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9515,10 +9512,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C118" s="17" t="s">
         <v>326</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9578,10 +9575,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>329</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9641,10 +9638,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C120" s="17" t="s">
         <v>330</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>331</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9659,55 +9656,55 @@
         <v>0.29162170831996698</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="I120" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="J120" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="K120" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="S120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="T120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>344</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>346</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>347</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9761,16 +9758,16 @@
         <v>36.670000000000002</v>
       </c>
       <c r="U121" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C122" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>350</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9830,10 +9827,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="17" t="s">
         <v>351</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>352</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9893,10 +9890,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" s="17" t="s">
         <v>353</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>354</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9956,10 +9953,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C125" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>356</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10019,10 +10016,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C126" s="17" t="s">
         <v>357</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>358</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10082,10 +10079,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="17" t="s">
         <v>359</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>360</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10145,10 +10142,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>361</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>362</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10208,10 +10205,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>364</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10271,10 +10268,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C130" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10334,10 +10331,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10391,16 +10388,16 @@
         <v>1329.0999999999999</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>371</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10460,10 +10457,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>372</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>373</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10523,10 +10520,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>374</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>375</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10586,10 +10583,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>377</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10610,49 +10607,49 @@
         <v>1.79</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="K135" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="L135" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="M135" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="N135" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="R135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="S135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="T135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>388</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>390</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>391</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10712,10 +10709,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>392</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>393</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10775,10 +10772,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>394</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>395</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10838,10 +10835,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10901,10 +10898,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>399</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10958,16 +10955,16 @@
         <v>381</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>401</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>402</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11027,10 +11024,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11090,10 +11087,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>405</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>406</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11153,10 +11150,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>407</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11216,10 +11213,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>410</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11279,10 +11276,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11342,10 +11339,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11405,10 +11402,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>416</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11468,10 +11465,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>417</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>418</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11531,10 +11528,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>420</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11594,10 +11591,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>421</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>422</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11657,10 +11654,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>424</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11720,10 +11717,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C153" s="17" t="s">
         <v>425</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11783,10 +11780,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C154" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11846,10 +11843,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C155" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>430</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11909,10 +11906,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C156" s="17" t="s">
         <v>431</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>432</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11972,10 +11969,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C157" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12035,10 +12032,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C158" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C158" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12092,16 +12089,16 @@
         <v>19.9495</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C159" s="17" t="s">
         <v>438</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>439</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12161,10 +12158,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C160" s="17" t="s">
         <v>440</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>441</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12224,10 +12221,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C161" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>443</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12287,10 +12284,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C162" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>445</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12350,10 +12347,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C163" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12413,10 +12410,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12476,28 +12473,28 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="F165" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="G165" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="H165" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="H165" s="20" t="s">
+      <c r="I165" s="20" t="s">
         <v>455</v>
-      </c>
-      <c r="I165" s="20" t="s">
-        <v>456</v>
       </c>
       <c r="J165" s="20">
         <v>1.79</v>
@@ -12539,10 +12536,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>458</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12560,52 +12557,52 @@
         <v>21.385000000000002</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="J166" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="K166" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="L166" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="M166" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="R166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="S166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="T166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12617,58 +12614,58 @@
         <v>181.9314</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H167" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="I167" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="J167" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="K167" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="R167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="S167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="T167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>489</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>490</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12728,25 +12725,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
+      <c r="F169" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="G169" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="G169" s="20" t="s">
+      <c r="H169" s="20" t="s">
         <v>495</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>496</v>
       </c>
       <c r="I169" s="20">
         <v>31750</v>
@@ -12776,25 +12773,25 @@
         <v>23605</v>
       </c>
       <c r="R169" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="S169" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="S169" s="20" t="s">
+      <c r="T169" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="T169" s="20" t="s">
+      <c r="U169" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="U169" s="20" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C170" s="17" t="s">
         <v>501</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>502</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12854,31 +12851,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C171" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="F171" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="G171" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="H171" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="H171" s="20" t="s">
+      <c r="I171" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="I171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>509</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>510</v>
       </c>
       <c r="K171" s="20">
         <v>2.9500000000000002</v>
@@ -12917,10 +12914,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" s="17" t="s">
         <v>511</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>512</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12974,16 +12971,16 @@
         <v>186.40819999999999</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>515</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13043,10 +13040,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C174" s="17" t="s">
         <v>516</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>517</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13106,10 +13103,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" s="17" t="s">
         <v>518</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>519</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13169,10 +13166,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>520</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>521</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13226,16 +13223,16 @@
         <v>55</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C177" s="17" t="s">
         <v>523</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>524</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13295,10 +13292,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C178" s="17" t="s">
         <v>525</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>526</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13358,10 +13355,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C179" s="17" t="s">
         <v>527</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>528</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13421,10 +13418,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C180" s="17" t="s">
         <v>529</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>530</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13469,25 +13466,25 @@
         <v>436.5</v>
       </c>
       <c r="R180" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="S180" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="S180" s="22" t="s">
+      <c r="T180" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="T180" s="22" t="s">
+      <c r="U180" s="22" t="s">
         <v>533</v>
-      </c>
-      <c r="U180" s="22" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C181" s="17" t="s">
         <v>535</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>536</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13547,10 +13544,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C182" s="17" t="s">
         <v>537</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>538</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13610,10 +13607,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C183" s="17" t="s">
         <v>539</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>540</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13673,10 +13670,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C184" s="17" t="s">
         <v>541</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>542</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13736,10 +13733,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C185" s="17" t="s">
         <v>543</v>
-      </c>
-      <c r="C185" s="17" t="s">
-        <v>544</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13799,10 +13796,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C186" s="17" t="s">
         <v>545</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>546</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13862,10 +13859,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C187" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>548</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13925,10 +13922,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C188" s="17" t="s">
         <v>549</v>
-      </c>
-      <c r="C188" s="17" t="s">
-        <v>550</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -13988,10 +13985,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C189" s="17" t="s">
         <v>551</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>552</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14051,10 +14048,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="C190" s="17" t="s">
         <v>553</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>554</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14114,10 +14111,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="C191" s="17" t="s">
         <v>555</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>556</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14177,10 +14174,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>557</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>558</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14240,10 +14237,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C193" s="17" t="s">
         <v>559</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>560</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14303,10 +14300,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="C194" s="17" t="s">
         <v>561</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14366,10 +14363,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="C195" s="17" t="s">
         <v>563</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>564</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14429,10 +14426,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="C196" s="17" t="s">
         <v>565</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>566</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14492,37 +14489,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C197" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="F197" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="G197" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="H197" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="I197" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="J197" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="J197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="K197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>575</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>576</v>
       </c>
       <c r="M197" s="20">
         <v>2202.1999999999998</v>
@@ -14555,10 +14552,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C198" s="17" t="s">
         <v>577</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>578</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14618,10 +14615,10 @@
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C199" s="17" t="s">
         <v>579</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>580</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14666,25 +14663,25 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="R199" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="S199" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="S199" s="20" t="s">
+      <c r="T199" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="T199" s="20" t="s">
+      <c r="U199" s="20" t="s">
         <v>583</v>
-      </c>
-      <c r="U199" s="20" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C200" s="17" t="s">
         <v>585</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>586</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14744,10 +14741,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C201" s="17" t="s">
         <v>587</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>588</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14807,10 +14804,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>589</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>590</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14870,10 +14867,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>592</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14891,34 +14888,34 @@
         <v>4900000.0000000102</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="J203" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="K203" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="L203" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="M203" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="O203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="P203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="Q203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>601</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>602</v>
       </c>
       <c r="S203" s="20">
         <v>16.773399999999999</v>
@@ -14933,10 +14930,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>603</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>604</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -14996,10 +14993,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>605</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>606</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15059,10 +15056,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C206" s="24" t="s">
         <v>607</v>
-      </c>
-      <c r="C206" s="24" t="s">
-        <v>608</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_5A.xlsx
+++ b/FOREX/data/FOREX_5A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -614,9 +614,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -935,12 +932,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1053,9 +1044,6 @@
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Mauritius</t>
@@ -6544,17 +6532,17 @@
       <c r="T70" s="22">
         <v>39.180900000000001</v>
       </c>
-      <c r="U70" s="22" t="s">
-        <v>200</v>
+      <c r="U70" s="22">
+        <v>49.193600000000004</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -6614,10 +6602,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -6659,28 +6647,28 @@
         <v>7.0528000000000004</v>
       </c>
       <c r="Q72" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="R72" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="R72" s="22" t="s">
+      <c r="S72" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="S72" s="22" t="s">
+      <c r="T72" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="T72" s="22" t="s">
+      <c r="U72" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>211</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -6740,10 +6728,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -6803,10 +6791,10 @@
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -6866,10 +6854,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -6929,10 +6917,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>218</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -6992,10 +6980,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>220</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>221</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -7055,10 +7043,10 @@
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -7118,10 +7106,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -7163,28 +7151,28 @@
         <v>7.0528000000000004</v>
       </c>
       <c r="Q80" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="R80" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="R80" s="22" t="s">
+      <c r="S80" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="T80" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="T80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>232</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -7244,10 +7232,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>233</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>234</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -7307,10 +7295,10 @@
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7370,10 +7358,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7427,16 +7415,16 @@
         <v>9990.0017000000007</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>241</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7496,10 +7484,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7559,10 +7547,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7622,10 +7610,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7685,10 +7673,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7748,10 +7736,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>251</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7811,10 +7799,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7874,10 +7862,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -7937,10 +7925,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -8000,10 +7988,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -8063,10 +8051,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -8126,10 +8114,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -8189,10 +8177,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>265</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -8252,10 +8240,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8315,10 +8303,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8378,10 +8366,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8441,10 +8429,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8504,10 +8492,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8567,10 +8555,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8630,10 +8618,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8693,10 +8681,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8756,10 +8744,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8819,10 +8807,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8882,10 +8870,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -8945,10 +8933,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -8981,37 +8969,37 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="O109" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="P109" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="Q109" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="S109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="T109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C110" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>299</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9071,10 +9059,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9134,10 +9122,10 @@
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9191,16 +9179,16 @@
         <v>164.22</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9250,20 +9238,20 @@
       <c r="S113" s="20">
         <v>1.3963000000000001</v>
       </c>
-      <c r="T113" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="U113" s="20" t="s">
-        <v>308</v>
+      <c r="T113" s="20">
+        <v>1.3366</v>
+      </c>
+      <c r="U113" s="20">
+        <v>4.5960999999999999</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9299,34 +9287,34 @@
         <v>2.8386999999999998</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="P114" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q114" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="R114" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="S114" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="T114" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9386,10 +9374,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9443,16 +9431,16 @@
         <v>773.112466971451</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9512,10 +9500,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9575,10 +9563,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9638,10 +9626,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9656,55 +9644,55 @@
         <v>0.29162170831996698</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="K120" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>341</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="T120" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9757,17 +9745,17 @@
       <c r="T121" s="20">
         <v>36.670000000000002</v>
       </c>
-      <c r="U121" s="20" t="s">
-        <v>347</v>
+      <c r="U121" s="20">
+        <v>36.219999999999999</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9827,10 +9815,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9890,10 +9878,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -9953,10 +9941,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10016,10 +10004,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10079,10 +10067,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10142,10 +10130,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10205,10 +10193,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10268,10 +10256,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10331,10 +10319,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10388,16 +10376,16 @@
         <v>1329.0999999999999</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10457,10 +10445,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10520,10 +10508,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10583,10 +10571,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10607,49 +10595,49 @@
         <v>1.79</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="L135" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="M135" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="N135" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="O135" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="Q135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="R135" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="S135" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="T135" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10709,10 +10697,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10772,10 +10760,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10835,10 +10823,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10898,10 +10886,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -10955,16 +10943,16 @@
         <v>381</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11024,10 +11012,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11087,10 +11075,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11150,10 +11138,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11213,10 +11201,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11276,10 +11264,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11339,10 +11327,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11402,10 +11390,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11426,19 +11414,19 @@
         <v>4610</v>
       </c>
       <c r="J148" s="22">
-        <v>4565.3249999999998</v>
+        <v>4573.75</v>
       </c>
       <c r="K148" s="22">
-        <v>4491.9949999999999</v>
+        <v>4439.9049999999997</v>
       </c>
       <c r="L148" s="22">
-        <v>4238.0249999999996</v>
+        <v>4288.8000000000002</v>
       </c>
       <c r="M148" s="22">
-        <v>4598.1750000000002</v>
+        <v>4524</v>
       </c>
       <c r="N148" s="22">
-        <v>4635.6999999999998</v>
+        <v>4626.2550000000001</v>
       </c>
       <c r="O148" s="22">
         <v>5806.915</v>
@@ -11465,10 +11453,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11528,10 +11516,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11591,10 +11579,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11654,10 +11642,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11717,10 +11705,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11780,10 +11768,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11843,10 +11831,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11906,10 +11894,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -11969,10 +11957,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12032,10 +12020,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12089,16 +12077,16 @@
         <v>19.9495</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12158,10 +12146,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12221,10 +12209,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12284,10 +12272,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12347,10 +12335,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12410,10 +12398,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12473,28 +12461,28 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D165" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="G165" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="H165" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="D165" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="I165" s="20" t="s">
         <v>451</v>
-      </c>
-      <c r="F165" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="G165" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="H165" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="I165" s="20" t="s">
-        <v>455</v>
       </c>
       <c r="J165" s="20">
         <v>1.79</v>
@@ -12536,10 +12524,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12557,52 +12545,52 @@
         <v>21.385000000000002</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="K166" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="L166" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="M166" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="N166" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="O166" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="P166" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="P166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="Q166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="R166" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="S166" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="T166" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12614,58 +12602,58 @@
         <v>181.9314</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="J167" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="K167" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="L167" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="M167" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="N167" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="O167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="P167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="Q167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>483</v>
-      </c>
-      <c r="R167" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="S167" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="T167" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12725,25 +12713,25 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="D169" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F169" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G169" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="H169" s="20" t="s">
         <v>491</v>
-      </c>
-      <c r="D169" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="F169" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="G169" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="H169" s="20" t="s">
-        <v>495</v>
       </c>
       <c r="I169" s="20">
         <v>31750</v>
@@ -12773,25 +12761,25 @@
         <v>23605</v>
       </c>
       <c r="R169" s="20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="S169" s="20" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="T169" s="20" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="U169" s="20" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12851,31 +12839,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D171" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F171" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="G171" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="H171" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="D171" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E171" s="19" t="s">
+      <c r="I171" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="F171" s="20" t="s">
+      <c r="J171" s="20" t="s">
         <v>505</v>
-      </c>
-      <c r="G171" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="H171" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="I171" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="J171" s="20" t="s">
-        <v>509</v>
       </c>
       <c r="K171" s="20">
         <v>2.9500000000000002</v>
@@ -12914,10 +12902,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -12971,16 +12959,16 @@
         <v>186.40819999999999</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13040,10 +13028,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13103,10 +13091,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13166,10 +13154,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13223,16 +13211,16 @@
         <v>55</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13292,10 +13280,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13355,10 +13343,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13418,10 +13406,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13466,25 +13454,25 @@
         <v>436.5</v>
       </c>
       <c r="R180" s="22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="S180" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="T180" s="22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="U180" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13544,10 +13532,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13607,10 +13595,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13670,10 +13658,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13733,10 +13721,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13796,10 +13784,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13859,10 +13847,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13922,10 +13910,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -13985,10 +13973,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14048,10 +14036,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14111,10 +14099,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14174,10 +14162,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14237,10 +14225,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14300,10 +14288,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14363,10 +14351,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14426,10 +14414,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14489,37 +14477,37 @@
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D197" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="F197" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="G197" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="H197" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="D197" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E197" s="19" t="s">
+      <c r="I197" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="J197" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="K197" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="L197" s="20" t="s">
         <v>571</v>
-      </c>
-      <c r="I197" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="J197" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="K197" s="20" t="s">
-        <v>574</v>
-      </c>
-      <c r="L197" s="20" t="s">
-        <v>575</v>
       </c>
       <c r="M197" s="20">
         <v>2202.1999999999998</v>
@@ -14552,10 +14540,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14615,10 +14603,10 @@
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14663,25 +14651,25 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="R199" s="20" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="S199" s="20" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="T199" s="20" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="U199" s="20" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14741,10 +14729,10 @@
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14804,10 +14792,10 @@
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14867,10 +14855,10 @@
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14888,34 +14876,34 @@
         <v>4900000.0000000102</v>
       </c>
       <c r="I203" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="K203" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="L203" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="M203" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="J203" s="20" t="s">
+      <c r="N203" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="K203" s="20" t="s">
+      <c r="O203" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="L203" s="20" t="s">
+      <c r="P203" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="Q203" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="N203" s="20" t="s">
+      <c r="R203" s="20" t="s">
         <v>597</v>
-      </c>
-      <c r="O203" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="P203" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q203" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="R203" s="20" t="s">
-        <v>601</v>
       </c>
       <c r="S203" s="20">
         <v>16.773399999999999</v>
@@ -14930,10 +14918,10 @@
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -14993,10 +14981,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15056,10 +15044,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>
